--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\IdeaProjects\Demo_Auto2\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\IdeaProjects\Shopping\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1500B6B8-B108-473F-B6AB-A55525064537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43CC125-111F-49D2-9C34-90B9FE9E46E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="525" yWindow="3840" windowWidth="14745" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3990" windowWidth="14745" windowHeight="11235" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="BookDemo" sheetId="1" r:id="rId1"/>
-    <sheet name="Checkout" sheetId="2" r:id="rId2"/>
+    <sheet name="HappyCase" sheetId="1" r:id="rId1"/>
+    <sheet name="UpperCase" sheetId="4" r:id="rId2"/>
+    <sheet name="UnhappyCase" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,46 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
-  <si>
-    <t>Business Email</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Company</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Chris</t>
-  </si>
-  <si>
-    <t>Evans</t>
-  </si>
-  <si>
-    <t>Marvel</t>
-  </si>
-  <si>
-    <t>Tony</t>
-  </si>
-  <si>
-    <t>Stark</t>
-  </si>
-  <si>
-    <t>Stark Inc</t>
-  </si>
-  <si>
-    <t>test@yourdomain.com</t>
-  </si>
-  <si>
-    <t>test2@yourdomain.com</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
   <si>
     <t>username</t>
   </si>
@@ -73,40 +35,43 @@
     <t>password</t>
   </si>
   <si>
-    <t>firstName</t>
-  </si>
-  <si>
-    <t>lastName</t>
-  </si>
-  <si>
-    <t>postalCode</t>
-  </si>
-  <si>
     <t>standard_user</t>
   </si>
   <si>
     <t>secret_sauce</t>
   </si>
   <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>Albania</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>Sauce AI Agents</t>
-  </si>
-  <si>
-    <t>Agree</t>
-  </si>
-  <si>
-    <t>Visual Testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phone </t>
+    <t>STANDARD_USER</t>
+  </si>
+  <si>
+    <t>secret_sauce1</t>
+  </si>
+  <si>
+    <t>standard_user1</t>
+  </si>
+  <si>
+    <t>testcase</t>
+  </si>
+  <si>
+    <t>happy_case</t>
+  </si>
+  <si>
+    <t>wrong_password</t>
+  </si>
+  <si>
+    <t>wrong_username</t>
+  </si>
+  <si>
+    <t>wrong_both</t>
+  </si>
+  <si>
+    <t>empty_user</t>
+  </si>
+  <si>
+    <t>empty_password</t>
+  </si>
+  <si>
+    <t>Upper_case</t>
   </si>
 </sst>
 </file>
@@ -451,145 +416,178 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8FCCEB8-7187-4497-8203-EB8628CA21FB}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="2">
-        <v>9123456781</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1234567890</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" t="b">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{5912D981-FC4B-4386-A173-81D08838CB03}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{C3C73C9E-7B0E-48FE-AE58-164B9DF938AE}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DAC73DF-48A0-4E41-802D-377328164A69}">
-  <dimension ref="A1:E2"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0832351-F6EC-4A86-831B-E995CE83BA06}">
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2">
-        <v>700000</v>
+      <c r="B6" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
